--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.37659299999999</v>
+        <v>20.759945</v>
       </c>
       <c r="H2">
-        <v>154.129779</v>
+        <v>62.27983500000001</v>
       </c>
       <c r="I2">
-        <v>0.6482346823708168</v>
+        <v>0.4268123443832108</v>
       </c>
       <c r="J2">
-        <v>0.6482346823708167</v>
+        <v>0.4268123443832108</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N2">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O2">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P2">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q2">
-        <v>3.441289826795</v>
+        <v>0.06349083179166667</v>
       </c>
       <c r="R2">
-        <v>30.971608441155</v>
+        <v>0.5714174861250001</v>
       </c>
       <c r="S2">
-        <v>0.001952856880802635</v>
+        <v>5.887818300087775E-05</v>
       </c>
       <c r="T2">
-        <v>0.001952856880802635</v>
+        <v>5.887818300087774E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.37659299999999</v>
+        <v>20.759945</v>
       </c>
       <c r="H3">
-        <v>154.129779</v>
+        <v>62.27983500000001</v>
       </c>
       <c r="I3">
-        <v>0.6482346823708168</v>
+        <v>0.4268123443832108</v>
       </c>
       <c r="J3">
-        <v>0.6482346823708167</v>
+        <v>0.4268123443832108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.10861</v>
       </c>
       <c r="O3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q3">
-        <v>1132.14504992191</v>
+        <v>457.4703692088167</v>
       </c>
       <c r="R3">
-        <v>10189.30544929719</v>
+        <v>4117.23332287935</v>
       </c>
       <c r="S3">
-        <v>0.6424676101360963</v>
+        <v>0.424234859674513</v>
       </c>
       <c r="T3">
-        <v>0.6424676101360962</v>
+        <v>0.4242348596745129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.37659299999999</v>
+        <v>20.759945</v>
       </c>
       <c r="H4">
-        <v>154.129779</v>
+        <v>62.27983500000001</v>
       </c>
       <c r="I4">
-        <v>0.6482346823708168</v>
+        <v>0.4268123443832108</v>
       </c>
       <c r="J4">
-        <v>0.6482346823708167</v>
+        <v>0.4268123443832108</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.392475</v>
       </c>
       <c r="O4">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P4">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q4">
-        <v>6.721342779224999</v>
+        <v>2.715919804625</v>
       </c>
       <c r="R4">
-        <v>60.49208501302499</v>
+        <v>24.443278241625</v>
       </c>
       <c r="S4">
-        <v>0.003814215353917809</v>
+        <v>0.002518606525696948</v>
       </c>
       <c r="T4">
-        <v>0.003814215353917808</v>
+        <v>0.002518606525696947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>50.830914</v>
       </c>
       <c r="I5">
-        <v>0.2137832260916193</v>
+        <v>0.3483513013719668</v>
       </c>
       <c r="J5">
-        <v>0.2137832260916192</v>
+        <v>0.3483513013719668</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N5">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O5">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P5">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q5">
-        <v>1.134913112636667</v>
+        <v>0.05181929288333333</v>
       </c>
       <c r="R5">
-        <v>10.21421801373</v>
+        <v>0.46637363595</v>
       </c>
       <c r="S5">
-        <v>0.0006440384253219945</v>
+        <v>4.805458872191743E-05</v>
       </c>
       <c r="T5">
-        <v>0.0006440384253219943</v>
+        <v>4.805458872191743E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>50.830914</v>
       </c>
       <c r="I6">
-        <v>0.2137832260916193</v>
+        <v>0.3483513013719668</v>
       </c>
       <c r="J6">
-        <v>0.2137832260916192</v>
+        <v>0.3483513013719668</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>66.10861</v>
       </c>
       <c r="O6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q6">
         <v>373.3734521743933</v>
@@ -818,10 +818,10 @@
         <v>3360.36106956954</v>
       </c>
       <c r="S6">
-        <v>0.2118812863451484</v>
+        <v>0.3462476364607779</v>
       </c>
       <c r="T6">
-        <v>0.2118812863451484</v>
+        <v>0.3462476364607779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>50.830914</v>
       </c>
       <c r="I7">
-        <v>0.2137832260916193</v>
+        <v>0.3483513013719668</v>
       </c>
       <c r="J7">
-        <v>0.2137832260916192</v>
+        <v>0.3483513013719668</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.392475</v>
       </c>
       <c r="O7">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P7">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q7">
         <v>2.21665144135</v>
@@ -880,10 +880,10 @@
         <v>19.94986297215</v>
       </c>
       <c r="S7">
-        <v>0.00125790132114882</v>
+        <v>0.00205561032246698</v>
       </c>
       <c r="T7">
-        <v>0.00125790132114882</v>
+        <v>0.00205561032246698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>32.807793</v>
       </c>
       <c r="I8">
-        <v>0.137982091537564</v>
+        <v>0.2248363542448224</v>
       </c>
       <c r="J8">
-        <v>0.137982091537564</v>
+        <v>0.2248363542448224</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N8">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O8">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P8">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q8">
-        <v>0.7325068849316666</v>
+        <v>0.03344572230833333</v>
       </c>
       <c r="R8">
-        <v>6.592561964384999</v>
+        <v>0.301011500775</v>
       </c>
       <c r="S8">
-        <v>0.0004156816724171033</v>
+        <v>3.101586958457606E-05</v>
       </c>
       <c r="T8">
-        <v>0.0004156816724171032</v>
+        <v>3.101586958457606E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>32.807793</v>
       </c>
       <c r="I9">
-        <v>0.137982091537564</v>
+        <v>0.2248363542448224</v>
       </c>
       <c r="J9">
-        <v>0.137982091537564</v>
+        <v>0.2248363542448224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>66.10861</v>
       </c>
       <c r="O9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q9">
         <v>240.9863991553033</v>
@@ -1004,10 +1004,10 @@
         <v>2168.87759239773</v>
       </c>
       <c r="S9">
-        <v>0.1367545227100452</v>
+        <v>0.2234785859594115</v>
       </c>
       <c r="T9">
-        <v>0.1367545227100452</v>
+        <v>0.2234785859594115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>32.807793</v>
       </c>
       <c r="I10">
-        <v>0.137982091537564</v>
+        <v>0.2248363542448224</v>
       </c>
       <c r="J10">
-        <v>0.137982091537564</v>
+        <v>0.2248363542448224</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.392475</v>
       </c>
       <c r="O10">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P10">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q10">
         <v>1.430693173075</v>
@@ -1066,10 +1066,10 @@
         <v>12.876238557675</v>
       </c>
       <c r="S10">
-        <v>0.0008118871551016576</v>
+        <v>0.00132675241582632</v>
       </c>
       <c r="T10">
-        <v>0.0008118871551016575</v>
+        <v>0.00132675241582632</v>
       </c>
     </row>
   </sheetData>
